--- a/Trackify.xlsx
+++ b/Trackify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibad Ur Rehman\Desktop\Projects\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C452AD7-5189-4ED8-958A-D18BEF24D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780431F-6309-4980-B6A8-FF5479AB8E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{119EA74C-1CA9-4AD5-B637-D80EF69B80C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{119EA74C-1CA9-4AD5-B637-D80EF69B80C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="59">
   <si>
     <t>Google Adsecne</t>
   </si>
@@ -212,6 +212,9 @@
   <si>
     <t>Main Type</t>
   </si>
+  <si>
+    <t>Red indicates expenses, green indicates income.</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +313,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -391,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,12 +478,51 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{ECD634E8-3069-4212-94DD-D4DE1531B2DF}"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFF9F9F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -594,7 +648,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
         <name val="Abadi"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -889,7 +943,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color rgb="FF00B050"/>
+        <color theme="1"/>
         <name val="Abadi"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -953,48 +1007,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFF9F9F9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1004,6 +1016,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1214,20 +1233,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704088</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C942F5B6-8C0A-0A03-C1BB-11ECD13D8164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2167128" cy="768096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFB0CB09-56AB-456D-9FEB-A8E7EB353277}" name="Table1" displayName="Table1" ref="A1:G301" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFB0CB09-56AB-456D-9FEB-A8E7EB353277}" name="Table1" displayName="Table1" ref="A1:G301" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="14" tableBorderDxfId="15">
   <autoFilter ref="A1:G301" xr:uid="{60BDD857-60C9-2A41-B00E-9601992B12D6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G301">
     <sortCondition ref="A2:A301" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Sep,Oct,Nov,Aug,Dec"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{327AFD7C-7C76-A44F-B30B-8D0AE2027696}" name="Month" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C23F1883-5A3C-DC45-9E57-C42111A5FCB8}" name="Main Type" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{03690B0C-E812-1F4B-8D35-C47491EF4EDC}" name="Category" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8052ED4C-135B-BF4F-8F64-93D722FAD6F9}" name="Sub-category" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{883132BC-7CBA-454E-8F48-BC1F671B83D4}" name="Amount" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{3742A18F-CF24-CC4E-AB55-415AEEFB28D6}" name="Bill Due Date" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{4948316E-5691-4F4E-B6BC-CB3EFCE371B5}" name="Status" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{327AFD7C-7C76-A44F-B30B-8D0AE2027696}" name="Month" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C23F1883-5A3C-DC45-9E57-C42111A5FCB8}" name="Main Type" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{03690B0C-E812-1F4B-8D35-C47491EF4EDC}" name="Category" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8052ED4C-135B-BF4F-8F64-93D722FAD6F9}" name="Sub-category" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{883132BC-7CBA-454E-8F48-BC1F671B83D4}" name="Amount" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3742A18F-CF24-CC4E-AB55-415AEEFB28D6}" name="Bill Due Date" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{4948316E-5691-4F4E-B6BC-CB3EFCE371B5}" name="Status" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1458,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B751352C-DAC9-4034-8B8E-EE6C39E324E3}">
   <dimension ref="A1:O304"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1563,7 @@
     <col min="7" max="7" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.26953125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.81640625" style="1"/>
-    <col min="11" max="11" width="14.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="1" customWidth="1"/>
     <col min="12" max="13" width="7.08984375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7265625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.90625" style="1" customWidth="1"/>
@@ -1962,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -1985,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
@@ -2008,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2030,8 +2120,15 @@
       <c r="G19" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="K19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2054,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
@@ -2077,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2198,7 @@
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>43</v>
       </c>
@@ -2121,7 +2218,7 @@
       <c r="G23" s="7"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
@@ -2141,7 +2238,7 @@
       <c r="G24" s="7"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -2161,7 +2258,7 @@
       <c r="G25" s="7"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>43</v>
       </c>
@@ -2181,7 +2278,7 @@
       <c r="G26" s="16"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +2302,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>42</v>
       </c>
@@ -2229,7 +2326,7 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>42</v>
       </c>
@@ -2253,7 +2350,7 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
@@ -2277,7 +2374,7 @@
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
@@ -2301,7 +2398,7 @@
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>42</v>
       </c>
@@ -8615,6 +8712,9 @@
       <c r="K304" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K19:O19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -8628,10 +8728,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D08F51C-B76D-4A6F-AEDD-443C6E68BE02}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="25"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trackify.xlsx
+++ b/Trackify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibad Ur Rehman\Desktop\Projects\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780431F-6309-4980-B6A8-FF5479AB8E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E58F1-A04A-4AAB-8D5D-82D2F60D9034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{119EA74C-1CA9-4AD5-B637-D80EF69B80C0}"/>
   </bookViews>
@@ -1063,6 +1063,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7F778A"/>
+      <color rgb="FF211025"/>
+      <color rgb="FFCC8409"/>
+      <color rgb="FF003C4F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1237,23 +1245,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>555384</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704088</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27432</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>67056</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C942F5B6-8C0A-0A03-C1BB-11ECD13D8164}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8720D77E-8713-971D-B353-87BFA56DC949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,18 +1269,2299 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2167128" cy="768096"/>
+          <a:off x="10823334" y="0"/>
+          <a:ext cx="1672323" cy="752856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Partial Circle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F496A8F-F254-4607-A3D7-0343D850DDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11993880" y="769620"/>
+          <a:ext cx="937260" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="pie">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5453710"/>
+            <a:gd name="adj2" fmla="val 16200000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PK" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128016</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="90" name="Group 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8264C5-FA09-9962-FDBC-46008D4D9D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17318355" cy="1499616"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="17318355" cy="1499616"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7145536A-2451-ED00-91C1-1836F4F764D6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="746760"/>
+            <a:ext cx="1619250" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdDnDiag">
+            <a:fgClr>
+              <a:srgbClr val="003C4F"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:srgbClr val="CC8409"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB945CE-EDE9-6001-B0BB-5D0DDA773D1B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2160270" y="0"/>
+            <a:ext cx="657225" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDD707A-DDCA-5197-16FB-53A5C0003C5B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1619250" y="746760"/>
+            <a:ext cx="2236851" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="Group 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E092F5-4E3C-2E65-B9EF-B6ED9E9340F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="2170938" cy="752856"/>
+            <a:chOff x="0" y="0"/>
+            <a:chExt cx="2167128" cy="768096"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Rectangle 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C942F5B6-8C0A-0A03-C1BB-11ECD13D8164}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="2167128" cy="768096"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Oval 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6B535A-2738-25F3-5FE3-33F3AF5FBCC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="586740" y="236220"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Oval 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EA15F7-79E6-C299-5828-B9163799DA99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="906780" y="236220"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Oval 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16C58F8-EFF4-203D-EEE5-623192AA49DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1226820" y="236220"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Oval 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AD3FE6-1538-7FD6-9E4F-E699A1C0F589}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1546860" y="236220"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="Group 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE893FD8-CB19-60FC-1808-3D9A770E7F4B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2794635" y="0"/>
+            <a:ext cx="2063115" cy="754380"/>
+            <a:chOff x="2788920" y="0"/>
+            <a:chExt cx="2057400" cy="769620"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Rectangle 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B39C90-64DD-B642-C507-5EC297BD3EED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2788920" y="0"/>
+              <a:ext cx="1591056" cy="768096"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Partial Circle 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213AACE9-01C1-21C8-220A-51A8B86E66E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3909060" y="0"/>
+              <a:ext cx="937260" cy="769620"/>
+            </a:xfrm>
+            <a:prstGeom prst="pie">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 5453710"/>
+                <a:gd name="adj2" fmla="val 16200000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BFE999-CAFB-008C-1839-B08C7C7CEA3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4383405" y="0"/>
+            <a:ext cx="1621155" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdDnDiag">
+            <a:fgClr>
+              <a:srgbClr val="003C4F"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:srgbClr val="CC8409"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EE83D6-15B9-5297-EC47-73A24431C385}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3861435" y="746760"/>
+            <a:ext cx="2154555" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="24" name="Group 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48FB5B4-43F0-8FAA-5801-7019D9223C87}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6002274" y="0"/>
+            <a:ext cx="1594866" cy="760476"/>
+            <a:chOff x="5987034" y="0"/>
+            <a:chExt cx="1591056" cy="775716"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Isosceles Triangle 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DC4E31-9260-080B-43BD-22ACF0BD81D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="6398514" y="-411480"/>
+              <a:ext cx="768096" cy="1591056"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 100000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Isosceles Triangle 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA126A2D-4549-1AA8-E419-A51D39017DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="6398514" y="-403860"/>
+              <a:ext cx="768096" cy="1591056"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 100000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="Group 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9E46C3-C228-D7CF-6EF6-95EDCA4DFDC0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6002274" y="739140"/>
+            <a:ext cx="1594866" cy="760476"/>
+            <a:chOff x="5987034" y="0"/>
+            <a:chExt cx="1591056" cy="775716"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Isosceles Triangle 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21F9EDB-F232-4F32-43BF-88E8D43DFBB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="6398514" y="-411480"/>
+              <a:ext cx="768096" cy="1591056"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 100000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Isosceles Triangle 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F46D37-F525-9588-171E-E2AF67887F09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="6398514" y="-403860"/>
+              <a:ext cx="768096" cy="1591056"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 100000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rectangle 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFE63CC-1242-21E7-DBFD-B5FDB941C42F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7593330" y="746760"/>
+            <a:ext cx="1631442" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CC8409"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rectangle 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3795BF68-387C-B83C-ED71-AF594CCEC289}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7593330" y="0"/>
+            <a:ext cx="1631442" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="32" name="Group 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290C7F2D-4384-DB6B-ECCB-C2ECFD86AE4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9227820" y="0"/>
+            <a:ext cx="1631442" cy="749808"/>
+            <a:chOff x="9159240" y="0"/>
+            <a:chExt cx="1627632" cy="765048"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Rectangle 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A83EB5-25AA-CBAF-7F62-CFFB2D9FE4C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9159240" y="0"/>
+              <a:ext cx="1627632" cy="384048"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Rectangle 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013489EB-A316-D9F2-EF90-BD65223E990D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9159240" y="381000"/>
+              <a:ext cx="1627632" cy="384048"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Rectangle 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265EBAF8-85D5-F271-7A89-5BCFB6DDE711}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9227820" y="746760"/>
+            <a:ext cx="3267837" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Isosceles Triangle 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF275A53-C51C-4308-8563-2F4729F61FA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="10831830" y="0"/>
+            <a:ext cx="1674495" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 54365"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Rectangle 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F049792-2AE6-577F-F30E-6C6626B3DF10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12498705" y="746760"/>
+            <a:ext cx="1631442" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CC8409"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343E2D5D-DD27-575B-62A0-E27577605B79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12498705" y="0"/>
+            <a:ext cx="1631442" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="46" name="Group 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3645D763-2C84-8D4E-066E-DD90EAB7ABDD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="14123289" y="0"/>
+            <a:ext cx="1594866" cy="1499616"/>
+            <a:chOff x="14087094" y="0"/>
+            <a:chExt cx="1591056" cy="1530096"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="40" name="Group 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3663E6D3-4BAB-9BB8-F33C-5B5E7A8C569A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14087094" y="0"/>
+              <a:ext cx="1591056" cy="775716"/>
+              <a:chOff x="5987034" y="0"/>
+              <a:chExt cx="1591056" cy="775716"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="Isosceles Triangle 40">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4ACD6-E20A-3F9D-A7E6-6C317518BB4E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="5400000">
+                <a:off x="6398514" y="-411480"/>
+                <a:ext cx="768096" cy="1591056"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 100000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-PK" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="42" name="Isosceles Triangle 41">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AA7D2E-2F8C-ED46-520F-5C4EC7EB58CA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="6398514" y="-403860"/>
+                <a:ext cx="768096" cy="1591056"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 100000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-PK" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="43" name="Group 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE51DA16-2643-7E4D-E849-F7A4BC7B5028}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14087094" y="754380"/>
+              <a:ext cx="1591056" cy="775716"/>
+              <a:chOff x="5987034" y="0"/>
+              <a:chExt cx="1591056" cy="775716"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="44" name="Isosceles Triangle 43">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7CC4F9-E2A6-271C-CBDB-1E762467A9CC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="5400000">
+                <a:off x="6398514" y="-411480"/>
+                <a:ext cx="768096" cy="1591056"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 100000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-PK" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="45" name="Isosceles Triangle 44">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FF207A-484D-11FC-87DB-2A3E5E0D5609}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="6398514" y="-403860"/>
+                <a:ext cx="768096" cy="1591056"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 100000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-PK" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="47" name="Group 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316C527B-B83F-E808-0A6E-AD8054EE8908}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipV="1">
+            <a:off x="15719679" y="739140"/>
+            <a:ext cx="1594866" cy="760476"/>
+            <a:chOff x="5987034" y="0"/>
+            <a:chExt cx="1591056" cy="775716"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Isosceles Triangle 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D25B82-18D0-14F5-3304-B1FEA22CA6FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="6398514" y="-411480"/>
+              <a:ext cx="768096" cy="1591056"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 100000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="Isosceles Triangle 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF07F18-8EC4-FDD5-CD27-1A2A612AD714}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="6398514" y="-403860"/>
+              <a:ext cx="768096" cy="1591056"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 100000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Rectangle 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F82EAD-C465-8657-35B4-0921B3D6E214}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15721965" y="0"/>
+            <a:ext cx="1596390" cy="752856"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PK" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="61" name="Group 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FCA100-1795-17A2-1AA7-4D85F3742FCD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4512072" y="964958"/>
+            <a:ext cx="1145010" cy="179251"/>
+            <a:chOff x="4321572" y="1060208"/>
+            <a:chExt cx="1145010" cy="179251"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:srgbClr val="211025"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="Oval 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF055BCC-C28C-4D93-B5AA-0CBE3497CED9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4321572" y="1060208"/>
+              <a:ext cx="183202" cy="179251"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="Oval 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFBE922-878D-49EF-81F5-8D9803C05420}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4642174" y="1060208"/>
+              <a:ext cx="183202" cy="179251"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="Oval 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B31B9B8-A052-49CB-89B7-285B1F760F73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4962777" y="1060208"/>
+              <a:ext cx="183202" cy="179251"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="Oval 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DCF1E7-0043-4B1E-B6A8-A41FC3586FFE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5283380" y="1060208"/>
+              <a:ext cx="183202" cy="179251"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-PK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle: Rounded Corners 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE8C507-94C2-9B30-28D3-04D346A32AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19048" y="19050"/>
+          <a:ext cx="17278351" cy="9400032"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9676"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="339725">
+          <a:solidFill>
+            <a:srgbClr val="7F778A"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Isosceles Triangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD83A68-C157-641F-332F-D4F870F0D81B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-128588" y="128588"/>
+          <a:ext cx="714375" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -8728,8 +11017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D08F51C-B76D-4A6F-AEDD-443C6E68BE02}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
